--- a/Documentos/Mapeamento.xlsx
+++ b/Documentos/Mapeamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projeto Final\ProjetoFinal\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B56DC-9128-4106-89BB-C180413B5889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278183C-7E3D-4976-96C3-1271412ED8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="240">
   <si>
     <t>AuditFile</t>
   </si>
@@ -551,9 +551,6 @@
     <t>ATDocCodeID</t>
   </si>
   <si>
-    <t>Cureency</t>
-  </si>
-  <si>
     <t>WorkingDocuments</t>
   </si>
   <si>
@@ -575,60 +572,12 @@
     <t>WorkType</t>
   </si>
   <si>
-    <t>Nó</t>
-  </si>
-  <si>
-    <t>Atributo</t>
-  </si>
-  <si>
-    <t>Relação</t>
-  </si>
-  <si>
-    <t>Nó com label 'AuditFile'</t>
-  </si>
-  <si>
-    <t>Nó com label 'Header'</t>
-  </si>
-  <si>
-    <t>Atributo do Nó 'AuditFile'</t>
-  </si>
-  <si>
-    <t>Atributo do Nó 'Company'</t>
-  </si>
-  <si>
-    <t>Associado à 'Company', 'LOCATED_IN'</t>
-  </si>
-  <si>
-    <t>Atributo do Nó 'CompanyAddress'</t>
-  </si>
-  <si>
     <t>Contêm o atributo e o valor</t>
   </si>
   <si>
-    <t>Associado à 'CompanyAddress', 'HAS_BUILDING_NUMBER'</t>
-  </si>
-  <si>
-    <t>Associado à 'CompanyAddress', 'HAS_STREET_NAME'</t>
-  </si>
-  <si>
-    <t>Associado à 'CompanyAddress', 'HAS_CITY'</t>
-  </si>
-  <si>
-    <t>Associado à 'CompanyAddress', 'HAS_POSTAL_CODE'</t>
-  </si>
-  <si>
-    <t>Associado à 'CompanyAddress', 'HAS_REGION'</t>
-  </si>
-  <si>
-    <t>Associado à 'CompanyAddress', 'HAS_COUNTRY'</t>
-  </si>
-  <si>
     <t>Atributo do Nó 'Header'</t>
   </si>
   <si>
-    <t>Nó com label 'CompanyAddress'</t>
-  </si>
-  <si>
     <t>UNDEFINED</t>
   </si>
   <si>
@@ -744,6 +693,67 @@
   </si>
   <si>
     <t>Associado à 'ShipToAddress', 'HAS_COUNTRY'</t>
+  </si>
+  <si>
+    <t>DocumentsTotals</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>PaymentRefNo</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>SystemID</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>PaymentStatusDate</t>
+  </si>
+  <si>
+    <t>SourcePayment</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>SourceDocumentID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Mapeamento</t>
+  </si>
+  <si>
+    <t>Cabeçalho</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Ficheiro de auditoria informática</t>
+  </si>
+  <si>
+    <t>Identificação do registo comercial da empresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de identificação
+fiscal da empresa </t>
+  </si>
+  <si>
+    <t>Sistema contabilístico</t>
+  </si>
+  <si>
+    <t>Nome da empresa</t>
   </si>
 </sst>
 </file>
@@ -779,10 +789,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J372"/>
+  <dimension ref="A1:J446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,13 +1101,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1108,7 +1121,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1121,10 +1134,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1137,9 +1147,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" t="s">
-        <v>185</v>
-      </c>
+      <c r="H4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1151,11 +1162,11 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
@@ -1165,9 +1176,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" t="s">
-        <v>198</v>
-      </c>
+      <c r="H6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1180,7 +1192,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1193,8 +1205,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" t="s">
-        <v>186</v>
+      <c r="H8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1207,12 +1219,6 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1224,15 +1230,6 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1244,15 +1241,6 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1264,9 +1252,6 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1278,15 +1263,6 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1298,15 +1274,6 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1318,15 +1285,6 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1338,15 +1296,6 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1358,9 +1307,6 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1373,7 +1319,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1387,7 +1333,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,7 +1347,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1415,7 +1361,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1429,7 +1375,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1443,7 +1389,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1457,7 +1403,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1471,7 +1417,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1485,7 +1431,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1499,7 +1445,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1513,10 +1459,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="I28" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1530,10 +1476,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="I29" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1547,10 +1493,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1564,10 +1510,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1580,10 +1526,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1597,10 +1543,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J33" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,7 +1560,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1628,10 +1574,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,7 +1591,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1659,7 +1605,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1673,7 +1619,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1687,7 +1633,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1701,7 +1647,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1715,7 +1661,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1729,7 +1675,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="I42" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1743,7 +1689,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1757,7 +1703,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="I44" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1771,7 +1717,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,7 +1731,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="I46" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -1799,7 +1745,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="J47" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -1813,7 +1759,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -1827,7 +1773,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="J49" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -1841,7 +1787,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -1855,10 +1801,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -1872,13 +1818,13 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I52" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -1892,13 +1838,13 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -1912,7 +1858,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="I54" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -1926,13 +1872,13 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I55" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J55" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -1946,13 +1892,13 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -1966,13 +1912,13 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I57" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -1986,13 +1932,13 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2006,10 +1952,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J59" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2023,13 +1969,13 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2043,13 +1989,13 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2063,7 +2009,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="I62" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2077,13 +2023,13 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2097,13 +2043,13 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I64" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2117,13 +2063,13 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I65" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J65" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2137,13 +2083,13 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2157,10 +2103,10 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="I67" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J67" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2174,10 +2120,10 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="I68" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J68" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,10 +2137,10 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J69" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2208,10 +2154,10 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2225,7 +2171,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="I71" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3043,1148 +2989,3828 @@
       <c r="B146" t="s">
         <v>94</v>
       </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="C147" t="s">
         <v>95</v>
       </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
       <c r="D148" t="s">
         <v>49</v>
       </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
       <c r="D149" t="s">
         <v>50</v>
       </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
       <c r="D150" t="s">
         <v>51</v>
       </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
       <c r="D151" t="s">
         <v>96</v>
       </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
       <c r="E152" t="s">
         <v>97</v>
       </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
       <c r="E153" t="s">
         <v>98</v>
       </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
       <c r="E154" t="s">
         <v>99</v>
       </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
       <c r="F155" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
       <c r="F156" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
       <c r="F157" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
       <c r="F158" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
       <c r="F159" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
       <c r="E160" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
       <c r="E161" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
       <c r="E162" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
       <c r="E163" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
       <c r="E164" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
       <c r="E165" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
       <c r="F166" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
       <c r="F167" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
       <c r="F168" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
       <c r="E169" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
       <c r="E170" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
       <c r="E171" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
       <c r="E172" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
       <c r="E173" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
       <c r="E174" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
       <c r="F175" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
       <c r="F176" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
       <c r="F177" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
       <c r="G178" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
       <c r="G179" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
       <c r="G180" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
       <c r="G181" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
       <c r="G183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
       <c r="G184" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
       <c r="E185" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
       <c r="F186" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
       <c r="F187" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
       <c r="F188" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
       <c r="G189" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
       <c r="G190" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
       <c r="G191" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
       <c r="G192" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
       <c r="G193" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
       <c r="G194" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
       <c r="G195" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
       <c r="E196" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
       <c r="E197" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
       <c r="E198" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
       <c r="F199" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
       <c r="F200" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
       <c r="G201" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
       <c r="G202" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
       <c r="F203" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
       <c r="F204" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
       <c r="F205" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
       <c r="F206" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
       <c r="F207" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
       <c r="F208" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
       <c r="F209" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
       <c r="F210" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
       <c r="G211" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
       <c r="G212" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
       <c r="F213" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
       <c r="F214" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
       <c r="G215" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
       <c r="F216" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
       <c r="F217" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
       <c r="G218" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
       <c r="G219" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
       <c r="G220" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
       <c r="G221" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
       <c r="F222" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
       <c r="F223" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
       <c r="F224" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
       <c r="F225" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
       <c r="G226" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
       <c r="G227" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
       <c r="E228" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
       <c r="F229" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
       <c r="F230" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
       <c r="F231" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
       <c r="F232" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
       <c r="G233" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
       <c r="G234" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
       <c r="G235" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
       <c r="F236" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
       <c r="G237" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
       <c r="G238" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
       <c r="G239" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
       <c r="G240" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
       <c r="F241" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
       <c r="G242" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
       <c r="G243" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
       <c r="G244" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
       <c r="E245" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
       <c r="F246" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
       <c r="F247" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
       <c r="F248" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
       <c r="C249" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
       <c r="D250" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
       <c r="D251" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
       <c r="D252" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
       <c r="E253" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
       <c r="E254" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
       <c r="E255" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
       <c r="F256" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
       <c r="F257" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
       <c r="F258" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
       <c r="F259" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
       <c r="F260" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
       <c r="E261" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
       <c r="E262" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
       <c r="E263" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
       <c r="E264" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
       <c r="E265" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
       <c r="E266" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
       <c r="E267" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
       <c r="E268" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
       <c r="E269" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
       <c r="E270" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
       <c r="E271" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
       <c r="E272" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
       <c r="F273" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
       <c r="F274" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
       <c r="F275" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
       <c r="G276" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
       <c r="G277" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
       <c r="G278" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
       <c r="G279" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
       <c r="G280" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
       <c r="G281" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
       <c r="G282" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
       <c r="E283" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
       <c r="F284" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
       <c r="F285" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
       <c r="F286" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
       <c r="G287" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
       <c r="G288" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
       <c r="G289" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
       <c r="G290" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
       <c r="G291" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
       <c r="G292" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
       <c r="G293" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
       <c r="E294" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
       <c r="E295" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
       <c r="E296" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
       <c r="E297" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
       <c r="F298" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
       <c r="F299" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
       <c r="G300" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
       <c r="G301" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
       <c r="F302" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
       <c r="F303" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
       <c r="F304" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="305" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
       <c r="F305" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="306" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
       <c r="F306" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="307" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
       <c r="F307" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
       <c r="F308" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="309" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
       <c r="G309" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="310" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
       <c r="F310" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="311" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
       <c r="F311" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="312" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
       <c r="G312" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="313" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
       <c r="G313" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="314" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
       <c r="G314" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
       <c r="G315" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
       <c r="F316" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
       <c r="F317" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
       <c r="F318" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="319" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
       <c r="F319" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="320" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
       <c r="G320" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
       <c r="G321" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
       <c r="E322" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
       <c r="F323" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
       <c r="F324" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
       <c r="F325" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
       <c r="F326" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
       <c r="G327" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
       <c r="G328" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
       <c r="G329" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
       <c r="C330" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
       <c r="D331" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
       <c r="D332" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
       <c r="D333" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
       <c r="D334" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
       <c r="E335" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
       <c r="E336" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
       <c r="E337" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="338" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
       <c r="F338" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F339" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
       <c r="F340" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="341" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
       <c r="F341" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
       <c r="F342" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
       <c r="E343" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
       <c r="E344" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
       <c r="E345" t="s">
+        <v>176</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E346" t="s">
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E347" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
       <c r="E348" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
       <c r="E349" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
       <c r="E350" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
       <c r="E351" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
       <c r="E352" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="353" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
       <c r="E353" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="354" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
       <c r="F354" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="355" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
       <c r="F355" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
       <c r="G356" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
       <c r="G357" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
       <c r="F358" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="359" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
       <c r="F359" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="360" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
       <c r="F360" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="361" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
       <c r="F361" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="362" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
       <c r="F362" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="363" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
       <c r="F363" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="364" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
       <c r="F364" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="365" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
       <c r="F365" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="366" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
       <c r="G366" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="367" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
       <c r="G367" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
       <c r="F368" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="369" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
       <c r="F369" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="370" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
       <c r="G370" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="371" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
       <c r="F371" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="372" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
       <c r="F372" t="s">
         <v>134</v>
       </c>
     </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" t="s">
+        <v>220</v>
+      </c>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+      <c r="F384" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+      <c r="F390" s="1"/>
+      <c r="G390" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" t="s">
+        <v>221</v>
+      </c>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" t="s">
+        <v>49</v>
+      </c>
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" t="s">
+        <v>50</v>
+      </c>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" t="s">
+        <v>51</v>
+      </c>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="1"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" t="s">
+        <v>152</v>
+      </c>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" t="s">
+        <v>222</v>
+      </c>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" t="s">
+        <v>98</v>
+      </c>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" t="s">
+        <v>57</v>
+      </c>
+      <c r="F398" s="1"/>
+      <c r="G398" s="1"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" t="s">
+        <v>56</v>
+      </c>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" t="s">
+        <v>58</v>
+      </c>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" t="s">
+        <v>223</v>
+      </c>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" t="s">
+        <v>54</v>
+      </c>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" t="s">
+        <v>224</v>
+      </c>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" t="s">
+        <v>99</v>
+      </c>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+      <c r="F406" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+      <c r="F409" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" t="s">
+        <v>228</v>
+      </c>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+      <c r="F412" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+      <c r="F413" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" t="s">
+        <v>59</v>
+      </c>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" t="s">
+        <v>67</v>
+      </c>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" t="s">
+        <v>40</v>
+      </c>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" t="s">
+        <v>119</v>
+      </c>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+      <c r="F418" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
+      <c r="G420" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
+      <c r="G421" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+      <c r="G422" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1"/>
+      <c r="F423" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1"/>
+      <c r="F424" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1"/>
+      <c r="F426" s="1"/>
+      <c r="G426" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
+      <c r="F427" s="1"/>
+      <c r="G427" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+      <c r="E428" s="1"/>
+      <c r="F428" s="1"/>
+      <c r="G428" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
+      <c r="G429" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+      <c r="F430" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+      <c r="F431" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+      <c r="E432" t="s">
+        <v>141</v>
+      </c>
+      <c r="F432" s="1"/>
+      <c r="G432" s="1"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1"/>
+      <c r="F433" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+      <c r="E434" s="1"/>
+      <c r="F434" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+      <c r="F435" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+      <c r="E436" s="1"/>
+      <c r="F436" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
+      <c r="G437" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+      <c r="G439" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
+      <c r="G440" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+      <c r="G441" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" t="s">
+        <v>156</v>
+      </c>
+      <c r="F442" s="1"/>
+      <c r="G442" s="1"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+      <c r="F444" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1"/>
+      <c r="F445" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="273">
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
+  <mergeCells count="666">
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A112:D112"/>
     <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A266:D266"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A264:D264"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="A404:D404"/>
+    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A402:D402"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A400:D400"/>
+    <mergeCell ref="A399:D399"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A342:E342"/>
+    <mergeCell ref="A341:E341"/>
+    <mergeCell ref="A340:E340"/>
+    <mergeCell ref="A339:E339"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A337:D337"/>
+    <mergeCell ref="A336:D336"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A269:D269"/>
+    <mergeCell ref="A427:F427"/>
+    <mergeCell ref="A428:F428"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="A430:E430"/>
+    <mergeCell ref="A431:E431"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="A432:D432"/>
+    <mergeCell ref="F442:G442"/>
+    <mergeCell ref="A445:E445"/>
+    <mergeCell ref="A444:E444"/>
+    <mergeCell ref="A443:E443"/>
+    <mergeCell ref="A433:E433"/>
+    <mergeCell ref="A434:E434"/>
+    <mergeCell ref="A435:E435"/>
+    <mergeCell ref="A436:E436"/>
+    <mergeCell ref="A437:F437"/>
+    <mergeCell ref="A438:E438"/>
+    <mergeCell ref="A439:F439"/>
+    <mergeCell ref="A440:F440"/>
+    <mergeCell ref="A441:F441"/>
+    <mergeCell ref="A442:D442"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A418:E418"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A421:F421"/>
+    <mergeCell ref="A422:F422"/>
+    <mergeCell ref="A423:E423"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A425:E425"/>
+    <mergeCell ref="A426:F426"/>
+    <mergeCell ref="A413:E413"/>
+    <mergeCell ref="F414:G414"/>
+    <mergeCell ref="A414:D414"/>
+    <mergeCell ref="A415:D415"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A417:D417"/>
+    <mergeCell ref="F415:G415"/>
+    <mergeCell ref="F416:G416"/>
+    <mergeCell ref="F417:G417"/>
+    <mergeCell ref="A405:E405"/>
+    <mergeCell ref="A406:E406"/>
+    <mergeCell ref="A407:E407"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A409:E409"/>
+    <mergeCell ref="F410:G410"/>
+    <mergeCell ref="A410:D410"/>
+    <mergeCell ref="A411:E411"/>
+    <mergeCell ref="A412:E412"/>
+    <mergeCell ref="F399:G399"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="F402:G402"/>
+    <mergeCell ref="F403:G403"/>
+    <mergeCell ref="F404:G404"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A394:C394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="E393:G393"/>
+    <mergeCell ref="E394:G394"/>
+    <mergeCell ref="E395:G395"/>
+    <mergeCell ref="A396:D396"/>
+    <mergeCell ref="A397:D397"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="A385:E385"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A389:F389"/>
+    <mergeCell ref="A390:F390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="D391:G391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="A377:E377"/>
+    <mergeCell ref="A378:E378"/>
+    <mergeCell ref="A379:E379"/>
+    <mergeCell ref="A380:E380"/>
+    <mergeCell ref="A381:F381"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="A383:D383"/>
+    <mergeCell ref="F383:G383"/>
+    <mergeCell ref="A384:E384"/>
+    <mergeCell ref="A446:G446"/>
+    <mergeCell ref="A354:E354"/>
+    <mergeCell ref="A355:E355"/>
+    <mergeCell ref="A356:F356"/>
+    <mergeCell ref="A357:F357"/>
+    <mergeCell ref="A358:E358"/>
+    <mergeCell ref="A359:E359"/>
+    <mergeCell ref="A360:E360"/>
+    <mergeCell ref="A361:E361"/>
+    <mergeCell ref="A362:E362"/>
+    <mergeCell ref="A363:E363"/>
+    <mergeCell ref="A364:E364"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A366:F366"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="A368:E368"/>
+    <mergeCell ref="A369:E369"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A371:E371"/>
+    <mergeCell ref="A372:E372"/>
+    <mergeCell ref="A373:F373"/>
+    <mergeCell ref="A374:F374"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="A376:F376"/>
+    <mergeCell ref="A353:D353"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="F348:G348"/>
+    <mergeCell ref="F349:G349"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="A344:D344"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A351:D351"/>
+    <mergeCell ref="A352:D352"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="A326:E326"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A328:F328"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="D330:G330"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="E331:G331"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="A318:E318"/>
+    <mergeCell ref="A319:E319"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A321:F321"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="A323:E323"/>
+    <mergeCell ref="A324:E324"/>
+    <mergeCell ref="A325:E325"/>
+    <mergeCell ref="A309:F309"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A313:F313"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A315:F315"/>
+    <mergeCell ref="A316:E316"/>
+    <mergeCell ref="A317:E317"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A301:F301"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A303:E303"/>
+    <mergeCell ref="A304:E304"/>
+    <mergeCell ref="A305:E305"/>
+    <mergeCell ref="A306:E306"/>
+    <mergeCell ref="A307:E307"/>
+    <mergeCell ref="A308:E308"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A297:D297"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="A298:E298"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="A286:E286"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A288:F288"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A290:F290"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A294:D294"/>
+    <mergeCell ref="A278:F278"/>
+    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A281:F281"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A285:E285"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="A277:F277"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="F269:G269"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A258:E258"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="E250:G250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="E251:G251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="A254:D254"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="A246:E246"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="E249:G249"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A236:E236"/>
+    <mergeCell ref="A237:F237"/>
+    <mergeCell ref="A238:F238"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="A242:F242"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="A229:E229"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A215:F215"/>
+    <mergeCell ref="A216:E216"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A200:E200"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A187:E187"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
     <mergeCell ref="A144:F144"/>
     <mergeCell ref="A145:F145"/>
     <mergeCell ref="D99:G99"/>
@@ -4209,246 +6835,10 @@
     <mergeCell ref="A134:E134"/>
     <mergeCell ref="A135:F135"/>
     <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
